--- a/biology/Médecine/Hyperlymphocytose/Hyperlymphocytose.xlsx
+++ b/biology/Médecine/Hyperlymphocytose/Hyperlymphocytose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hyperlymphocytose, également appelée simplement lymphocytose, est une anomalie de l'hémogramme, caractérisée par un nombre trop élevé de lymphocytes, supérieur à 4 500 par mm³ chez le sujet adulte.
 Chez le nouveau-né et le jeune enfant, une lymphocytose jusqu'à 8 000 lymphocytes par mm³ est physiologique, la formule leucocytaire se rapprochant des valeurs de l'adulte avec l'âge, pour devenir identique à l'adolescence.
@@ -512,7 +524,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si l’observation du frottis sanguin met en évidence des lymphocytes hyperbasophiles, le clinicien peut conclure à un syndrome mononucléosique. Sinon, l’examen clinique et/ou des examens biologiques complémentaires peuvent permettre de trouver les causes suivantes :
 une infection virale, l’hyperlymphocytose étant alors un symptôme de la virose, très fréquente chez l’enfant ;
@@ -548,7 +562,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Lymphocytose duodénale
  Portail de la médecine   Portail de l’hématologie                    </t>
